--- a/proj.abejas/data.xlsx
+++ b/proj.abejas/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\YulianaElizabeth\Desktop\fotos tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proy_GitHub_DH\r_script_dh\proj.abejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Hoja4" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja5" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="90">
   <si>
     <t xml:space="preserve">Concentración de plomo </t>
   </si>
@@ -231,15 +231,6 @@
     <t>Cuenca</t>
   </si>
   <si>
-    <t xml:space="preserve">Mes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable </t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>UDA</t>
   </si>
   <si>
@@ -299,13 +290,25 @@
   <si>
     <t>polen</t>
   </si>
+  <si>
+    <t>setor</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -383,15 +386,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +413,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -449,7 +452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -475,7 +477,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -563,6 +565,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A815-4329-9352-EDB020510E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -641,6 +648,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A815-4329-9352-EDB020510E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -719,6 +731,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A815-4329-9352-EDB020510E02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -788,7 +805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462183968"/>
@@ -847,7 +864,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462193216"/>
@@ -874,7 +891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -900,7 +916,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -930,7 +946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -942,7 +958,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -981,7 +997,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1007,7 +1022,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1095,6 +1110,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B0D-4A08-84BB-A08C6C57BC61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1173,6 +1193,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B0D-4A08-84BB-A08C6C57BC61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1251,6 +1276,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B0D-4A08-84BB-A08C6C57BC61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1320,7 +1350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462188864"/>
@@ -1379,7 +1409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462186144"/>
@@ -1406,7 +1436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1432,7 +1461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1462,7 +1491,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1474,7 +1503,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1518,7 +1547,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1544,7 +1572,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1609,6 +1637,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6871-4478-870E-4BDCB9AE398D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1678,7 +1711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462187232"/>
@@ -1737,7 +1770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462187776"/>
@@ -1788,7 +1821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1800,7 +1833,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1844,7 +1877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1870,7 +1902,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1940,6 +1972,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2000,6 +2037,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2060,6 +2102,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2129,7 +2176,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462183424"/>
@@ -2188,7 +2235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462192128"/>
@@ -2215,7 +2262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,7 +2287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2271,7 +2317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2283,7 +2329,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2327,7 +2373,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,7 +2398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2412,6 +2457,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4799-4FB9-A200-CAD2D9CB64D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2467,7 +2517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462181248"/>
@@ -2526,7 +2576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462190496"/>
@@ -2567,7 +2617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2579,7 +2629,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2648,7 +2698,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2743,6 +2793,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-182C-43E3-BE78-12C123C7FB6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2812,7 +2867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462185600"/>
@@ -2871,7 +2926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1462180160"/>
@@ -2922,7 +2977,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2934,7 +2989,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2998,7 +3053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3063,6 +3118,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6017-4D03-824F-0BFEF90512AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3118,7 +3178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1355902528"/>
@@ -3177,7 +3237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1593684720"/>
@@ -3218,7 +3278,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3230,7 +3290,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3289,7 +3349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3407,6 +3467,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C87D-4AFF-B3E0-09CCB157FF82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3515,6 +3580,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C87D-4AFF-B3E0-09CCB157FF82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3623,6 +3693,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C87D-4AFF-B3E0-09CCB157FF82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3675,7 +3750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1355899808"/>
@@ -3731,7 +3806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1355896000"/>
@@ -3771,7 +3846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3801,7 +3876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8900,17 +8975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9524,7 +9599,7 @@
       <c r="D6" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>4.8666666666666671E-2</v>
       </c>
@@ -9593,7 +9668,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
         <v>7.4999999999999997E-2</v>
@@ -9848,7 +9923,7 @@
       <c r="D3" s="3">
         <v>0.26</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:D3)</f>
         <v>0.23433333333333331</v>
       </c>
@@ -9866,7 +9941,7 @@
       <c r="D4" s="3">
         <v>0.41</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>0.24766666666666662</v>
       </c>
@@ -10219,658 +10294,658 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="D20" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3">
+      <c r="B26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="C46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="3">
         <v>0.41</v>
       </c>
     </row>
@@ -10882,201 +10957,201 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="3">
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3">
         <f>Miel!E2</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3">
         <f>Miel!E3</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
         <f>Miel!E4</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
         <f>Miel!E5</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="12">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11">
         <f>Miel!E6</f>
         <v>4.8666666666666671E-2</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
         <f>Miel!E7</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
         <f>Polen!E2</f>
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4">
         <f>Polen!E3</f>
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4">
         <f>Polen!E4</f>
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4">
         <f>Polen!E5</f>
         <v>3.5333333333333335E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4">
         <f>Polen!E6</f>
         <v>5.2666666666666667E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4">
         <f>Polen!E7</f>
         <v>4.1333333333333333E-2</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3">
         <f>Mp!E2</f>
         <v>0.68099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="12">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11">
         <f>Mp!E3</f>
         <v>0.23433333333333331</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="12">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="11">
         <f>Mp!E4</f>
         <v>0.24766666666666662</v>
       </c>

--- a/proj.abejas/data.xlsx
+++ b/proj.abejas/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proy_GitHub_DH\r_script_dh\proj.abejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE8605-1FB0-4AD5-8D91-B27E678FA156}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,8 +21,10 @@
     <sheet name="Hoja3" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja4" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja5" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja6" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja6 (2)" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="91">
   <si>
     <t xml:space="preserve">Concentración de plomo </t>
   </si>
@@ -231,6 +234,15 @@
     <t>Cuenca</t>
   </si>
   <si>
+    <t xml:space="preserve">Mes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>UDA</t>
   </si>
   <si>
@@ -291,22 +303,16 @@
     <t>polen</t>
   </si>
   <si>
-    <t>setor</t>
-  </si>
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
-    <t>sector</t>
+    <t xml:space="preserve">valor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -477,7 +483,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -518,7 +524,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>UCK</c:v>
+                  <c:v>UDA</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CS</c:v>
@@ -567,7 +573,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A815-4329-9352-EDB020510E02}"/>
+              <c16:uniqueId val="{00000000-5A5A-4A9D-8E47-0C52F5324A05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,7 +607,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>UCK</c:v>
+                  <c:v>UDA</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CS</c:v>
@@ -650,7 +656,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A815-4329-9352-EDB020510E02}"/>
+              <c16:uniqueId val="{00000001-5A5A-4A9D-8E47-0C52F5324A05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,7 +690,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>UCK</c:v>
+                  <c:v>UDA</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CS</c:v>
@@ -733,7 +739,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A815-4329-9352-EDB020510E02}"/>
+              <c16:uniqueId val="{00000002-5A5A-4A9D-8E47-0C52F5324A05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,11 +753,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1462193216"/>
-        <c:axId val="-1462183968"/>
+        <c:axId val="-1298039824"/>
+        <c:axId val="-1298038736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462193216"/>
+        <c:axId val="-1298039824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,10 +811,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462183968"/>
+        <c:crossAx val="-1298038736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462183968"/>
+        <c:axId val="-1298038736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,10 +870,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462193216"/>
+        <c:crossAx val="-1298039824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,7 +922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -946,7 +952,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1022,7 +1028,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1112,7 +1118,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B0D-4A08-84BB-A08C6C57BC61}"/>
+              <c16:uniqueId val="{00000000-8809-4B72-8B87-88484097F8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1195,7 +1201,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3B0D-4A08-84BB-A08C6C57BC61}"/>
+              <c16:uniqueId val="{00000001-8809-4B72-8B87-88484097F8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1278,7 +1284,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3B0D-4A08-84BB-A08C6C57BC61}"/>
+              <c16:uniqueId val="{00000002-8809-4B72-8B87-88484097F8F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1292,11 +1298,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1462186144"/>
-        <c:axId val="-1462188864"/>
+        <c:axId val="-1169948784"/>
+        <c:axId val="-1169954224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462186144"/>
+        <c:axId val="-1169948784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,10 +1356,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462188864"/>
+        <c:crossAx val="-1169954224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462188864"/>
+        <c:axId val="-1169954224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,10 +1415,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462186144"/>
+        <c:crossAx val="-1169948784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,7 +1467,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1491,7 +1497,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1572,7 +1578,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1639,7 +1645,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6871-4478-870E-4BDCB9AE398D}"/>
+              <c16:uniqueId val="{00000000-F752-489A-AF51-BDF821A2B162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,11 +1659,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1462187776"/>
-        <c:axId val="-1462187232"/>
+        <c:axId val="-1169947696"/>
+        <c:axId val="-1169956400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462187776"/>
+        <c:axId val="-1169947696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,10 +1717,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462187232"/>
+        <c:crossAx val="-1169956400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462187232"/>
+        <c:axId val="-1169956400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,10 +1776,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462187776"/>
+        <c:crossAx val="-1169947696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1821,7 +1827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1902,7 +1908,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1974,7 +1980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+              <c16:uniqueId val="{00000000-17C9-40B2-950E-98D2BB9C93CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2039,7 +2045,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+              <c16:uniqueId val="{00000001-17C9-40B2-950E-98D2BB9C93CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2104,7 +2110,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-45CF-4B21-A4C3-E3C918BC7E2F}"/>
+              <c16:uniqueId val="{00000002-17C9-40B2-950E-98D2BB9C93CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2118,11 +2124,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1462192128"/>
-        <c:axId val="-1462183424"/>
+        <c:axId val="-1169955856"/>
+        <c:axId val="-1169946608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462192128"/>
+        <c:axId val="-1169955856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,10 +2182,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462183424"/>
+        <c:crossAx val="-1169946608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2187,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462183424"/>
+        <c:axId val="-1169946608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,10 +2241,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462192128"/>
+        <c:crossAx val="-1169955856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2287,7 +2293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2317,7 +2323,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2398,7 +2404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2459,7 +2465,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4799-4FB9-A200-CAD2D9CB64D3}"/>
+              <c16:uniqueId val="{00000000-C781-490C-B6E8-5CB4999D798C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2473,11 +2479,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1462190496"/>
-        <c:axId val="-1462181248"/>
+        <c:axId val="-1169959664"/>
+        <c:axId val="-1169945520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462190496"/>
+        <c:axId val="-1169959664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,10 +2523,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462181248"/>
+        <c:crossAx val="-1169945520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2528,7 +2534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462181248"/>
+        <c:axId val="-1169945520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,10 +2582,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462190496"/>
+        <c:crossAx val="-1169959664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2617,7 +2623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2698,7 +2704,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2795,7 +2801,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-182C-43E3-BE78-12C123C7FB6D}"/>
+              <c16:uniqueId val="{00000000-6FB0-4AA4-B8C8-B8D0A8427C29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2809,11 +2815,11 @@
         </c:dLbls>
         <c:gapWidth val="267"/>
         <c:overlap val="-43"/>
-        <c:axId val="-1462180160"/>
-        <c:axId val="-1462185600"/>
+        <c:axId val="-1169953680"/>
+        <c:axId val="-1169949328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1462180160"/>
+        <c:axId val="-1169953680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,10 +2873,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462185600"/>
+        <c:crossAx val="-1169949328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1462185600"/>
+        <c:axId val="-1169949328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,10 +2932,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462180160"/>
+        <c:crossAx val="-1169953680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2977,7 +2983,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3053,7 +3059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3120,7 +3126,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6017-4D03-824F-0BFEF90512AC}"/>
+              <c16:uniqueId val="{00000000-D39F-417E-8516-F38CAD2DC314}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3134,11 +3140,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1593684720"/>
-        <c:axId val="-1355902528"/>
+        <c:axId val="-1169958576"/>
+        <c:axId val="-1169958032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1593684720"/>
+        <c:axId val="-1169958576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,10 +3184,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355902528"/>
+        <c:crossAx val="-1169958032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3189,7 +3195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1355902528"/>
+        <c:axId val="-1169958032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,10 +3243,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1593684720"/>
+        <c:crossAx val="-1169958576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3278,7 +3284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3326,7 +3332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3349,7 +3354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3469,7 +3474,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C87D-4AFF-B3E0-09CCB157FF82}"/>
+              <c16:uniqueId val="{00000000-93E0-478C-B205-35C2D8D8C03D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3582,7 +3587,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C87D-4AFF-B3E0-09CCB157FF82}"/>
+              <c16:uniqueId val="{00000001-93E0-478C-B205-35C2D8D8C03D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3695,7 +3700,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C87D-4AFF-B3E0-09CCB157FF82}"/>
+              <c16:uniqueId val="{00000002-93E0-478C-B205-35C2D8D8C03D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3709,11 +3714,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1355896000"/>
-        <c:axId val="-1355899808"/>
+        <c:axId val="-1169952048"/>
+        <c:axId val="-1169950960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1355896000"/>
+        <c:axId val="-1169952048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,10 +3755,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355899808"/>
+        <c:crossAx val="-1169950960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1355899808"/>
+        <c:axId val="-1169950960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,10 +3811,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355896000"/>
+        <c:crossAx val="-1169952048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3828,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3846,7 +3850,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3876,7 +3880,409 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja6 (2)'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>polen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17923687664041996"/>
+                  <c:y val="-0.23726815398075241"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-EC"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja6 (2)'!$F$15:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja6 (2)'!$G$15:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1D9-457D-8CFD-7AA1826BB852}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528701408"/>
+        <c:axId val="636126096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528701408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636126096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="636126096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528701408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4207,6 +4613,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
@@ -8425,6 +8871,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8446,7 +9408,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8481,7 +9449,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8511,7 +9485,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8546,7 +9526,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8576,7 +9562,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8611,7 +9603,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8641,7 +9639,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8676,7 +9680,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE90D93-ECD7-4386-83DB-C02B605E60CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8956,7 +10007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9485,12 +10536,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834201CE-96DC-47E5-A914-1BEEE24CF09F}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9516,7 +11023,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3">
         <v>3.3000000000000002E-2</v>
@@ -9643,16 +11150,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -9666,9 +11173,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4">
         <v>7.4999999999999997E-2</v>
@@ -9684,7 +11191,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
@@ -9702,7 +11209,7 @@
         <v>7.166666666666667E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -9720,7 +11227,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -9738,7 +11245,7 @@
         <v>3.5333333333333335E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -9756,7 +11263,7 @@
         <v>5.2666666666666667E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -9774,7 +11281,7 @@
         <v>4.1333333333333333E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f>STDEV(B2:B7)</f>
         <v>2.6832815729997472E-2</v>
@@ -9788,7 +11295,7 @@
         <v>2.7376388853657573E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <f>AVERAGE(B2:B7)</f>
         <v>0.08</v>
@@ -9802,7 +11309,7 @@
         <v>4.0666666666666663E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>(B8/B9)*100</f>
         <v>33.541019662496844</v>
@@ -9815,8 +11322,9 @@
         <f t="shared" si="3"/>
         <v>67.318988984403873</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <f>MAX(B2:B7)-MIN(B2:B7)</f>
         <v>7.5000000000000011E-2</v>
@@ -9866,11 +11374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10022,7 +11530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="B115" workbookViewId="0">
@@ -10136,7 +11644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10293,659 +11801,659 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="B33" sqref="B33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E9" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E21" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="E39" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="E46" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="E47" s="3">
         <v>0.41</v>
       </c>
     </row>
@@ -10956,207 +12464,432 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="D3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3">
+        <f>Miel!E2</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Miel!E3</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Miel!E4</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Miel!E5</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="11">
+        <f>Miel!E6</f>
+        <v>4.8666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3">
+        <f>Miel!E7</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="4">
+        <f>Polen!E2</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="4">
+        <f>Polen!E3</f>
+        <v>7.166666666666667E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="4">
+        <f>Polen!E4</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4">
+        <f>Polen!E5</f>
+        <v>3.5333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="4">
+        <f>Polen!E6</f>
+        <v>5.2666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="4">
+        <f>Polen!E7</f>
+        <v>4.1333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3">
+        <f>Mp!E2</f>
+        <v>0.68099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="11">
+        <f>Mp!E3</f>
+        <v>0.23433333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="11">
+        <f>Mp!E4</f>
+        <v>0.24766666666666662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="3">
-        <f>Miel!E2</f>
-        <v>3.3000000000000002E-2</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" s="3">
-        <f>Miel!E3</f>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="3">
-        <f>Miel!E4</f>
-        <v>3.3000000000000002E-2</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3">
-        <f>Miel!E5</f>
-        <v>3.3000000000000002E-2</v>
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="11">
-        <f>Miel!E6</f>
-        <v>4.8666666666666671E-2</v>
+      <c r="A6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="3">
-        <f>Miel!E7</f>
-        <v>3.3000000000000002E-2</v>
+        <v>80</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4">
-        <f>Polen!E2</f>
-        <v>5.5E-2</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="4">
-        <f>Polen!E3</f>
-        <v>7.166666666666667E-2</v>
+      <c r="C9" s="3">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="4">
-        <f>Polen!E4</f>
-        <v>5.5E-2</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4">
-        <f>Polen!E5</f>
-        <v>3.5333333333333335E-2</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="4">
-        <f>Polen!E6</f>
-        <v>5.2666666666666667E-2</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="4">
-        <f>Polen!E7</f>
-        <v>4.1333333333333333E-2</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3">
-        <f>Mp!E2</f>
-        <v>0.68099999999999994</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="11">
-        <f>Mp!E3</f>
-        <v>0.23433333333333331</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="11">
-        <f>Mp!E4</f>
-        <v>0.24766666666666662</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>